--- a/LATeamDataTest4.xlsx
+++ b/LATeamDataTest4.xlsx
@@ -496,6 +496,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -662,6 +668,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.285714285714286</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -844,6 +859,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -982,6 +1003,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1118,6 +1148,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -1256,6 +1292,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1392,6 +1437,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -1530,6 +1581,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1666,6 +1726,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -1790,6 +1856,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.75</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1903,6 +1978,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -2055,6 +2136,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.333333333333333</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2214,6 +2304,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -2366,6 +2462,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2525,6 +2630,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -2677,6 +2788,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2836,6 +2956,12 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -2974,6 +3100,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3110,6 +3245,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -3262,6 +3403,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.833333333333333</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3421,6 +3571,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -3559,6 +3715,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3695,6 +3860,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -3819,6 +3990,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.25</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -3932,6 +4112,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -4084,6 +4270,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4189,7 +4384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4230,6 +4425,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:11">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:11">
       <c r="B19" t="s">
         <v>8</v>
@@ -4265,6 +4468,17 @@
       </c>
       <c r="K20" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4332,6 +4546,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -4456,6 +4676,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4569,6 +4798,12 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -4721,6 +4956,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -4880,6 +5124,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -5004,6 +5254,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5117,6 +5376,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -5255,6 +5520,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5391,6 +5665,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -5529,6 +5809,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5665,6 +5954,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -5789,6 +6084,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -5902,6 +6206,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -6040,6 +6350,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6176,6 +6495,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -6314,6 +6639,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6450,6 +6784,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -6574,6 +6914,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6687,6 +7036,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -6811,6 +7166,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -6924,6 +7288,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -7062,6 +7432,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7198,6 +7577,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -7350,6 +7735,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7509,6 +7903,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -7661,6 +8061,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -7820,6 +8229,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -7944,6 +8359,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8057,6 +8481,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -8195,6 +8625,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8331,6 +8770,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -8441,6 +8886,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8531,6 +8985,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -8669,6 +9129,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -8805,6 +9274,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -8929,6 +9404,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -9042,6 +9526,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -9180,6 +9670,15 @@
       </c>
       <c r="G22" t="s">
         <v>15</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -9316,6 +9815,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -9454,6 +9959,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -9590,6 +10104,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -9714,6 +10234,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -9827,6 +10356,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -9965,6 +10500,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10301,6 +10845,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -10439,6 +10989,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10575,6 +11134,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -10727,6 +11292,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10886,6 +11460,12 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -11038,6 +11618,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.166666666666667</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.166666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -11197,6 +11786,12 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -11363,6 +11958,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.7142857142857143</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -11545,6 +12149,12 @@
       <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="G4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="n">
@@ -11683,6 +12293,15 @@
       </c>
       <c r="G22" t="s">
         <v>14</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:11">
